--- a/training/labels_train/voz_train.xlsx
+++ b/training/labels_train/voz_train.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29204"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nzkti\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\2011v3\Desktop\ai_pj\ai\training\labels_train\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{555ED87F-7934-4179-9DF5-9A828A38ED61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3003" uniqueCount="2593">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3389" uniqueCount="2717">
   <si>
     <t>text1</t>
   </si>
@@ -7799,12 +7798,384 @@
   </si>
   <si>
     <t>Узел прохода-УП2-1-0-500-1000-черн.ст.-фп.фп-Эмаль НЦ-132 сн.вн.</t>
+  </si>
+  <si>
+    <t>Воздуховод круглый Ø100</t>
+  </si>
+  <si>
+    <t>Воздуховод-100-3000-оц.-0.5-г.г</t>
+  </si>
+  <si>
+    <t>Воздуховод-100-3000-оц.-0.5-ф.ф</t>
+  </si>
+  <si>
+    <t>Воздуховод круглый Ø160</t>
+  </si>
+  <si>
+    <t>Воздуховод-160-3000-оц.-0.5-г.г</t>
+  </si>
+  <si>
+    <t>Воздуховод-160-3000-оц.-0.5-ф.ф</t>
+  </si>
+  <si>
+    <t>Воздуховод круглый Ø200</t>
+  </si>
+  <si>
+    <t>Воздуховод-200-3000-оц.-0.5-г.г</t>
+  </si>
+  <si>
+    <t>Воздуховод-200-3000-оц.-0.5-ф.ф</t>
+  </si>
+  <si>
+    <t>Воздуховод круглый Ø250</t>
+  </si>
+  <si>
+    <t>Воздуховод-250-3000-оц.-0.5-г.г</t>
+  </si>
+  <si>
+    <t>Воздуховод-250-3000-оц.-0.5-ф.ф</t>
+  </si>
+  <si>
+    <t>Воздуховод круглый Ø315</t>
+  </si>
+  <si>
+    <t>Воздуховод-315-3000-оц.-0.5-г.г</t>
+  </si>
+  <si>
+    <t>Воздуховод-315-3000-оц.-0.5-ф.ф</t>
+  </si>
+  <si>
+    <t>Воздуховод прямоугольный 600х300</t>
+  </si>
+  <si>
+    <t>Воздуховод-300*600-1410-оц.-0.7-т2.т2</t>
+  </si>
+  <si>
+    <t>Воздуховод круглый Ø110</t>
+  </si>
+  <si>
+    <t>Воздуховод-110-3000-оц.-0.5-ф.ф</t>
+  </si>
+  <si>
+    <t>Воздуховод круглый Ø120</t>
+  </si>
+  <si>
+    <t>Воздуховод-120-3000-оц.-0.5-ф.ф</t>
+  </si>
+  <si>
+    <t>Воздуховод круглый Ø125</t>
+  </si>
+  <si>
+    <t>Воздуховод-125-3000-оц.-0.5-г.г</t>
+  </si>
+  <si>
+    <t>Воздуховод-125-3000-оц.-0.5-ф.ф</t>
+  </si>
+  <si>
+    <t>Воздуховод круглый Ø140</t>
+  </si>
+  <si>
+    <t>Воздуховод-140-3000-оц.-0.5-г.г</t>
+  </si>
+  <si>
+    <t>Воздуховод-140-3000-оц.-0.5-ф.ф</t>
+  </si>
+  <si>
+    <t>Воздуховод круглый Ø150</t>
+  </si>
+  <si>
+    <t>Воздуховод-150-3000-оц.-0.5-ф.ф</t>
+  </si>
+  <si>
+    <t>Воздуховод круглый Ø180</t>
+  </si>
+  <si>
+    <t>Воздуховод-180-3000-оц.-0.5-г.г</t>
+  </si>
+  <si>
+    <t>Воздуховод-180-3000-оц.-0.5-ф.ф</t>
+  </si>
+  <si>
+    <t>Воздуховод круглый Ø225</t>
+  </si>
+  <si>
+    <t>Воздуховод-225-3000-оц.-0.5-г.г</t>
+  </si>
+  <si>
+    <t>Воздуховод-225-3000-оц.-0.5-ф.ф</t>
+  </si>
+  <si>
+    <t>Воздуховод круглый Ø280</t>
+  </si>
+  <si>
+    <t>Воздуховод-280-3000-оц.-0.5-г.г</t>
+  </si>
+  <si>
+    <t>Воздуховод-280-3000-оц.-0.5-ф.ф</t>
+  </si>
+  <si>
+    <t>Воздуховод круглый Ø300</t>
+  </si>
+  <si>
+    <t>Воздуховод-300-3000-оц.-0.5-ф.ф</t>
+  </si>
+  <si>
+    <t>Воздуховод круглый Ø355</t>
+  </si>
+  <si>
+    <t>Воздуховод-355-3000-оц.-0.5-г.г</t>
+  </si>
+  <si>
+    <t>Воздуховод-355-3000-оц.-0.5-ф.ф</t>
+  </si>
+  <si>
+    <t>Воздуховод прямоугольный 100х200</t>
+  </si>
+  <si>
+    <t>Воздуховод-100*200-1410-оц.-0.5-т2.т2</t>
+  </si>
+  <si>
+    <t>Воздуховод прямоугольный 150х300</t>
+  </si>
+  <si>
+    <t>Воздуховод-150*300-1410-оц.-0.5-т2.т2</t>
+  </si>
+  <si>
+    <t>Воздуховод прямоугольный 200х400</t>
+  </si>
+  <si>
+    <t>Воздуховод-200*400-1410-оц.-0.7-т2.т2</t>
+  </si>
+  <si>
+    <t>Воздуховод прямоугольный 250х500</t>
+  </si>
+  <si>
+    <t>Воздуховод-250*500-1410-оц.-0.7-т2.т2</t>
+  </si>
+  <si>
+    <t>Воздуховод прямоугольный 300х600</t>
+  </si>
+  <si>
+    <t>Воздуховод прямоугольный 350х700</t>
+  </si>
+  <si>
+    <t>Воздуховод-350*700-1390-оц.-0.7-т3.т3</t>
+  </si>
+  <si>
+    <t>Воздуховод прямоугольный 400х700</t>
+  </si>
+  <si>
+    <t>Воздуховод-400*700-1390-оц.-0.7-т3.т3</t>
+  </si>
+  <si>
+    <t>Воздуховод прямоугольный 400х800</t>
+  </si>
+  <si>
+    <t>Воздуховод-400*800-1390-оц.-0.7-т3.т3</t>
+  </si>
+  <si>
+    <t>Воздуховод прямоугольный 500х800</t>
+  </si>
+  <si>
+    <t>Воздуховод-500*800-1390-оц.-0.7-т3.т3</t>
+  </si>
+  <si>
+    <t>Воздуховод прямоугольный 500х900</t>
+  </si>
+  <si>
+    <t>Воздуховод-500*900-1390-оц.-0.9-т3.т3</t>
+  </si>
+  <si>
+    <t>Воздуховод прямоугольный 500х1000</t>
+  </si>
+  <si>
+    <t>Воздуховод-500*1000-1390-оц.-0.9-т3.т3</t>
+  </si>
+  <si>
+    <t>Воздуховод прямоугольный 600х1000</t>
+  </si>
+  <si>
+    <t>Воздуховод-600*1000-1390-оц.-0.9-т3.т3</t>
+  </si>
+  <si>
+    <t>Воздуховод прямоугольный 600х1200</t>
+  </si>
+  <si>
+    <t>Воздуховод-600*1200-1390-оц.-0.9-т3.т3</t>
+  </si>
+  <si>
+    <t>Воздуховод прямоугольный 700х1400</t>
+  </si>
+  <si>
+    <t>Воздуховод-700*1400-1390-оц.-1-т3.т3</t>
+  </si>
+  <si>
+    <t>Воздуховод прямоугольный 500х1500</t>
+  </si>
+  <si>
+    <t>Воздуховод-500*1500-1390-оц.-1.2-т3.т3</t>
+  </si>
+  <si>
+    <t>Решетка РН RAL9016 1000х1000</t>
+  </si>
+  <si>
+    <t>Козырек защитный для VR-5,0-Тип1-оц.</t>
+  </si>
+  <si>
+    <t>Сменная кассета FVK-G4-1000*1000-400</t>
+  </si>
+  <si>
+    <t>Вентилятор VO-6,3-О-2-4/3000-15C1-01</t>
+  </si>
+  <si>
+    <t>Вентилятор радиальный VR-280-46-2,0-1,1/3000-1-0-L0</t>
+  </si>
+  <si>
+    <t>Стакан монтажный SMK-063-024-0-0</t>
+  </si>
+  <si>
+    <t>Вентилятор крышный VKRF-E-6,3-DU400-4,0-1500-KS6-0</t>
+  </si>
+  <si>
+    <t>Смесительный узел SU NW 3 120-25,0-2-pr</t>
+  </si>
+  <si>
+    <t>Вентилятор радиальный VR-86-77-5,0-2,2/1500-1,05-0-L0</t>
+  </si>
+  <si>
+    <t>Вставка гибкая ВГ-221*221-У-DU400/600-ш2.ш2</t>
+  </si>
+  <si>
+    <t>Вентилятор VO-7,1-О-2-0,37/1000-15A1-01</t>
+  </si>
+  <si>
+    <t>Решетка РН-500*1000-45-50-оц.-1,0</t>
+  </si>
+  <si>
+    <t>Вентилятор VO 350-4E-01-B</t>
+  </si>
+  <si>
+    <t>Вентилятор радиальный VR-86-77-4,0-3,0/3000-0,9-0-L0</t>
+  </si>
+  <si>
+    <t>Водяной нагреватель NWP-800-500/1-R</t>
+  </si>
+  <si>
+    <t>Вентилятор радиальный VR-86-77-4,0-K-4,0/3000-0,9-0-P0</t>
+  </si>
+  <si>
+    <t>Щит управления ABU-PW-1-ZM-1,5/1,5</t>
+  </si>
+  <si>
+    <t>Клапан KPNZ-90-400*300-F2-SN-MN220-04</t>
+  </si>
+  <si>
+    <t>Сменная кассета FVK-F7-900*500-200</t>
+  </si>
+  <si>
+    <t>Вентилятор радиальный VR-86-77-8,0-KG-5,5/1000-1-0-P0</t>
+  </si>
+  <si>
+    <t>Вентилятор VO-4,5-О-2-0,37/1500-25C1-01</t>
+  </si>
+  <si>
+    <t>Решетка РН-150*400-45-50-оц.-1,0</t>
+  </si>
+  <si>
+    <t>Вентилятор радиальный VR-86-77-4,0-DU400-0,25/1000-1,05-0-P0</t>
+  </si>
+  <si>
+    <t>Вентилятор радиальный VR-280-46-6,3-DU400-22,0/1000-1-0-P0</t>
+  </si>
+  <si>
+    <t>Вентилятор радиальный VR-280-46-2,5-2,2/3000-1-0-L0</t>
+  </si>
+  <si>
+    <t>Вентилятор радиальный VR-86-77-6,3-G-5,5/1500-1-0-P0</t>
+  </si>
+  <si>
+    <t>Вентилятор VO-6,3-О-2-0,75/1000-25X1-01</t>
+  </si>
+  <si>
+    <t>Фланец-ш2-400*500-оц.-RAL9016</t>
+  </si>
+  <si>
+    <t>Вентилятор радиальный VR-280-46-4,0-7,5/1500-1-0-P0</t>
+  </si>
+  <si>
+    <t>Шайба усиленная М8 (250шт)</t>
+  </si>
+  <si>
+    <t>Вентилятор радиальный VR-280-46-2,0-DU600-1,1/3000-1-0-P0</t>
+  </si>
+  <si>
+    <t>Клапан KPNZ-90-1000-F2-SN-MN220-04</t>
+  </si>
+  <si>
+    <t>Вентилятор радиальный VR-86-77-8,0-V-11,0/1000-1,05-0-P0</t>
+  </si>
+  <si>
+    <t>Решетка РН-750*800-45-50-оц.-1,0</t>
+  </si>
+  <si>
+    <t>Щит управления ABUm-E-1-ZM-2,2-45/3</t>
+  </si>
+  <si>
+    <t>Тройник-125/100-35-35-180-50-оц.-0.5-н.н.н</t>
+  </si>
+  <si>
+    <t>Фильтр-бокс FVGU-800*500/5-оц.-т3.т3</t>
+  </si>
+  <si>
+    <t>Вентилятор крышный VKRS-E-5,0-O-0,55-1000-KS3-0</t>
+  </si>
+  <si>
+    <t>Вентилятор крышный VKRF-E-6,3-DU400-1,1-1000-KS6-0</t>
+  </si>
+  <si>
+    <t>Вентилятор VO 500-4D-01-B</t>
+  </si>
+  <si>
+    <t>Клапан воздушный KV-1500*1700-2*10</t>
+  </si>
+  <si>
+    <t>Врезка-1000-40-100-оц.-1.0-н</t>
+  </si>
+  <si>
+    <t>Вентилятор крышный VKRS-E-5,0-DU400-0,55-1000-KS4-0</t>
+  </si>
+  <si>
+    <t>Переходной патрубок VO-500</t>
+  </si>
+  <si>
+    <t>Вентилятор VO-7,1-О-1-4/1500-42N1-01</t>
+  </si>
+  <si>
+    <t>Воздуховод гибкий изолированный ИзоАЛ 356*10</t>
+  </si>
+  <si>
+    <t>Фильтр-бокс FVK-355-оц.-pp</t>
+  </si>
+  <si>
+    <t>Уголок №30 Е - 105*105 (102*102)</t>
+  </si>
+  <si>
+    <t>Вентилятор радиальный VR-86-77-5,0-VKG-0,75/1000-1-0-P0</t>
+  </si>
+  <si>
+    <t>Вентилятор крышный VKRF-E-3,15-DU400-1,5-3000-KS3-0</t>
+  </si>
+  <si>
+    <t>Воздуховод-100*100-1410-оц.-0.5-т2.т2</t>
+  </si>
+  <si>
+    <t>Воздуховод-100*100-1500-оц.-0.5-ш2.ш2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -7883,9 +8254,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Стандартная">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -7923,9 +8294,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -7960,7 +8331,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -7995,7 +8366,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Стандартная">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -8168,11 +8539,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C1501"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C1694"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1179" workbookViewId="0">
-      <selection activeCell="K1196" sqref="K1196"/>
+    <sheetView tabSelected="1" topLeftCell="A1650" workbookViewId="0">
+      <selection activeCell="A1502" sqref="A1502"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -24688,6 +25059,2129 @@
         <v>0</v>
       </c>
     </row>
+    <row r="1502" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1502" s="4" t="s">
+        <v>2593</v>
+      </c>
+      <c r="B1502" t="s">
+        <v>2594</v>
+      </c>
+      <c r="C1502">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="1503" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1503" t="s">
+        <v>2593</v>
+      </c>
+      <c r="B1503" t="s">
+        <v>2595</v>
+      </c>
+      <c r="C1503">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="1504" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1504" t="s">
+        <v>2593</v>
+      </c>
+      <c r="B1504" t="s">
+        <v>2594</v>
+      </c>
+      <c r="C1504">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="1505" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1505" t="s">
+        <v>2596</v>
+      </c>
+      <c r="B1505" t="s">
+        <v>2597</v>
+      </c>
+      <c r="C1505">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="1506" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1506" t="s">
+        <v>2596</v>
+      </c>
+      <c r="B1506" t="s">
+        <v>2598</v>
+      </c>
+      <c r="C1506">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="1507" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1507" t="s">
+        <v>2596</v>
+      </c>
+      <c r="B1507" t="s">
+        <v>2597</v>
+      </c>
+      <c r="C1507">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="1508" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1508" t="s">
+        <v>2599</v>
+      </c>
+      <c r="B1508" t="s">
+        <v>2600</v>
+      </c>
+      <c r="C1508">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="1509" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1509" t="s">
+        <v>2599</v>
+      </c>
+      <c r="B1509" t="s">
+        <v>2601</v>
+      </c>
+      <c r="C1509">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="1510" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1510" t="s">
+        <v>2599</v>
+      </c>
+      <c r="B1510" t="s">
+        <v>2600</v>
+      </c>
+      <c r="C1510">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="1511" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1511" t="s">
+        <v>2602</v>
+      </c>
+      <c r="B1511" t="s">
+        <v>2603</v>
+      </c>
+      <c r="C1511">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="1512" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1512" t="s">
+        <v>2602</v>
+      </c>
+      <c r="B1512" t="s">
+        <v>2604</v>
+      </c>
+      <c r="C1512">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="1513" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1513" t="s">
+        <v>2602</v>
+      </c>
+      <c r="B1513" t="s">
+        <v>2603</v>
+      </c>
+      <c r="C1513">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="1514" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1514" t="s">
+        <v>2605</v>
+      </c>
+      <c r="B1514" t="s">
+        <v>2606</v>
+      </c>
+      <c r="C1514">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="1515" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1515" t="s">
+        <v>2605</v>
+      </c>
+      <c r="B1515" t="s">
+        <v>2607</v>
+      </c>
+      <c r="C1515">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="1516" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1516" t="s">
+        <v>2605</v>
+      </c>
+      <c r="B1516" t="s">
+        <v>2606</v>
+      </c>
+      <c r="C1516">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="1517" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1517" t="s">
+        <v>2608</v>
+      </c>
+      <c r="B1517" t="s">
+        <v>2609</v>
+      </c>
+      <c r="C1517">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="1518" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1518" t="s">
+        <v>2608</v>
+      </c>
+      <c r="B1518" t="s">
+        <v>2609</v>
+      </c>
+      <c r="C1518">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="1519" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1519" t="s">
+        <v>2608</v>
+      </c>
+      <c r="B1519" t="s">
+        <v>2609</v>
+      </c>
+      <c r="C1519">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="1520" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1520" t="s">
+        <v>2610</v>
+      </c>
+      <c r="B1520" t="s">
+        <v>2611</v>
+      </c>
+      <c r="C1520">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="1521" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1521" t="s">
+        <v>2610</v>
+      </c>
+      <c r="B1521" t="s">
+        <v>2611</v>
+      </c>
+      <c r="C1521">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="1522" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1522" t="s">
+        <v>2610</v>
+      </c>
+      <c r="B1522" t="s">
+        <v>2611</v>
+      </c>
+      <c r="C1522">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="1523" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1523" t="s">
+        <v>2612</v>
+      </c>
+      <c r="B1523" t="s">
+        <v>2613</v>
+      </c>
+      <c r="C1523">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="1524" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1524" t="s">
+        <v>2612</v>
+      </c>
+      <c r="B1524" t="s">
+        <v>2613</v>
+      </c>
+      <c r="C1524">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="1525" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1525" t="s">
+        <v>2612</v>
+      </c>
+      <c r="B1525" t="s">
+        <v>2613</v>
+      </c>
+      <c r="C1525">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="1526" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1526" t="s">
+        <v>2614</v>
+      </c>
+      <c r="B1526" t="s">
+        <v>2615</v>
+      </c>
+      <c r="C1526">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="1527" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1527" t="s">
+        <v>2614</v>
+      </c>
+      <c r="B1527" t="s">
+        <v>2616</v>
+      </c>
+      <c r="C1527">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="1528" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1528" t="s">
+        <v>2614</v>
+      </c>
+      <c r="B1528" t="s">
+        <v>2615</v>
+      </c>
+      <c r="C1528">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="1529" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1529" t="s">
+        <v>2617</v>
+      </c>
+      <c r="B1529" t="s">
+        <v>2618</v>
+      </c>
+      <c r="C1529">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="1530" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1530" t="s">
+        <v>2617</v>
+      </c>
+      <c r="B1530" t="s">
+        <v>2619</v>
+      </c>
+      <c r="C1530">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="1531" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1531" t="s">
+        <v>2617</v>
+      </c>
+      <c r="B1531" t="s">
+        <v>2618</v>
+      </c>
+      <c r="C1531">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="1532" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1532" t="s">
+        <v>2620</v>
+      </c>
+      <c r="B1532" t="s">
+        <v>2621</v>
+      </c>
+      <c r="C1532">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="1533" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1533" t="s">
+        <v>2620</v>
+      </c>
+      <c r="B1533" t="s">
+        <v>2621</v>
+      </c>
+      <c r="C1533">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="1534" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1534" t="s">
+        <v>2620</v>
+      </c>
+      <c r="B1534" t="s">
+        <v>2621</v>
+      </c>
+      <c r="C1534">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="1535" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1535" t="s">
+        <v>2622</v>
+      </c>
+      <c r="B1535" t="s">
+        <v>2623</v>
+      </c>
+      <c r="C1535">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="1536" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1536" t="s">
+        <v>2622</v>
+      </c>
+      <c r="B1536" t="s">
+        <v>2624</v>
+      </c>
+      <c r="C1536">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="1537" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1537" t="s">
+        <v>2622</v>
+      </c>
+      <c r="B1537" t="s">
+        <v>2623</v>
+      </c>
+      <c r="C1537">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="1538" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1538" t="s">
+        <v>2625</v>
+      </c>
+      <c r="B1538" t="s">
+        <v>2626</v>
+      </c>
+      <c r="C1538">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="1539" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1539" t="s">
+        <v>2625</v>
+      </c>
+      <c r="B1539" t="s">
+        <v>2627</v>
+      </c>
+      <c r="C1539">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="1540" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1540" t="s">
+        <v>2625</v>
+      </c>
+      <c r="B1540" t="s">
+        <v>2626</v>
+      </c>
+      <c r="C1540">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="1541" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1541" t="s">
+        <v>2628</v>
+      </c>
+      <c r="B1541" t="s">
+        <v>2629</v>
+      </c>
+      <c r="C1541">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="1542" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1542" t="s">
+        <v>2628</v>
+      </c>
+      <c r="B1542" t="s">
+        <v>2630</v>
+      </c>
+      <c r="C1542">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="1543" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1543" t="s">
+        <v>2628</v>
+      </c>
+      <c r="B1543" t="s">
+        <v>2629</v>
+      </c>
+      <c r="C1543">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="1544" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1544" t="s">
+        <v>2631</v>
+      </c>
+      <c r="B1544" t="s">
+        <v>2632</v>
+      </c>
+      <c r="C1544">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="1545" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1545" t="s">
+        <v>2631</v>
+      </c>
+      <c r="B1545" t="s">
+        <v>2632</v>
+      </c>
+      <c r="C1545">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="1546" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1546" t="s">
+        <v>2631</v>
+      </c>
+      <c r="B1546" t="s">
+        <v>2632</v>
+      </c>
+      <c r="C1546">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="1547" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1547" t="s">
+        <v>2633</v>
+      </c>
+      <c r="B1547" t="s">
+        <v>2634</v>
+      </c>
+      <c r="C1547">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="1548" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1548" t="s">
+        <v>2633</v>
+      </c>
+      <c r="B1548" t="s">
+        <v>2635</v>
+      </c>
+      <c r="C1548">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="1549" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1549" t="s">
+        <v>2633</v>
+      </c>
+      <c r="B1549" t="s">
+        <v>2634</v>
+      </c>
+      <c r="C1549">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="1550" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1550" t="s">
+        <v>2636</v>
+      </c>
+      <c r="B1550" t="s">
+        <v>2637</v>
+      </c>
+      <c r="C1550">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="1551" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1551" t="s">
+        <v>2636</v>
+      </c>
+      <c r="B1551" t="s">
+        <v>2637</v>
+      </c>
+      <c r="C1551">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="1552" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1552" t="s">
+        <v>2636</v>
+      </c>
+      <c r="B1552" t="s">
+        <v>2637</v>
+      </c>
+      <c r="C1552">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="1553" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1553" t="s">
+        <v>2638</v>
+      </c>
+      <c r="B1553" t="s">
+        <v>2639</v>
+      </c>
+      <c r="C1553">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="1554" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1554" t="s">
+        <v>2638</v>
+      </c>
+      <c r="B1554" t="s">
+        <v>2639</v>
+      </c>
+      <c r="C1554">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="1555" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1555" t="s">
+        <v>2638</v>
+      </c>
+      <c r="B1555" t="s">
+        <v>2639</v>
+      </c>
+      <c r="C1555">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="1556" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1556" t="s">
+        <v>2640</v>
+      </c>
+      <c r="B1556" t="s">
+        <v>2641</v>
+      </c>
+      <c r="C1556">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="1557" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1557" t="s">
+        <v>2640</v>
+      </c>
+      <c r="B1557" t="s">
+        <v>2641</v>
+      </c>
+      <c r="C1557">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="1558" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1558" t="s">
+        <v>2640</v>
+      </c>
+      <c r="B1558" t="s">
+        <v>2641</v>
+      </c>
+      <c r="C1558">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="1559" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1559" t="s">
+        <v>2642</v>
+      </c>
+      <c r="B1559" t="s">
+        <v>2643</v>
+      </c>
+      <c r="C1559">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="1560" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1560" t="s">
+        <v>2642</v>
+      </c>
+      <c r="B1560" t="s">
+        <v>2643</v>
+      </c>
+      <c r="C1560">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="1561" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1561" t="s">
+        <v>2642</v>
+      </c>
+      <c r="B1561" t="s">
+        <v>2643</v>
+      </c>
+      <c r="C1561">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="1562" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1562" t="s">
+        <v>2644</v>
+      </c>
+      <c r="B1562" t="s">
+        <v>2609</v>
+      </c>
+      <c r="C1562">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="1563" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1563" t="s">
+        <v>2644</v>
+      </c>
+      <c r="B1563" t="s">
+        <v>2609</v>
+      </c>
+      <c r="C1563">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="1564" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1564" t="s">
+        <v>2644</v>
+      </c>
+      <c r="B1564" t="s">
+        <v>2609</v>
+      </c>
+      <c r="C1564">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="1565" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1565" t="s">
+        <v>2645</v>
+      </c>
+      <c r="B1565" t="s">
+        <v>2646</v>
+      </c>
+      <c r="C1565">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="1566" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1566" t="s">
+        <v>2645</v>
+      </c>
+      <c r="B1566" t="s">
+        <v>2646</v>
+      </c>
+      <c r="C1566">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="1567" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1567" t="s">
+        <v>2645</v>
+      </c>
+      <c r="B1567" t="s">
+        <v>2646</v>
+      </c>
+      <c r="C1567">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="1568" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1568" t="s">
+        <v>2647</v>
+      </c>
+      <c r="B1568" t="s">
+        <v>2648</v>
+      </c>
+      <c r="C1568">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="1569" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1569" t="s">
+        <v>2647</v>
+      </c>
+      <c r="B1569" t="s">
+        <v>2648</v>
+      </c>
+      <c r="C1569">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="1570" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1570" t="s">
+        <v>2647</v>
+      </c>
+      <c r="B1570" t="s">
+        <v>2648</v>
+      </c>
+      <c r="C1570">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="1571" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1571" t="s">
+        <v>2649</v>
+      </c>
+      <c r="B1571" t="s">
+        <v>2650</v>
+      </c>
+      <c r="C1571">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="1572" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1572" t="s">
+        <v>2649</v>
+      </c>
+      <c r="B1572" t="s">
+        <v>2650</v>
+      </c>
+      <c r="C1572">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="1573" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1573" t="s">
+        <v>2649</v>
+      </c>
+      <c r="B1573" t="s">
+        <v>2650</v>
+      </c>
+      <c r="C1573">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="1574" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1574" t="s">
+        <v>2651</v>
+      </c>
+      <c r="B1574" t="s">
+        <v>2652</v>
+      </c>
+      <c r="C1574">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="1575" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1575" t="s">
+        <v>2651</v>
+      </c>
+      <c r="B1575" t="s">
+        <v>2652</v>
+      </c>
+      <c r="C1575">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="1576" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1576" t="s">
+        <v>2651</v>
+      </c>
+      <c r="B1576" t="s">
+        <v>2652</v>
+      </c>
+      <c r="C1576">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="1577" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1577" t="s">
+        <v>2653</v>
+      </c>
+      <c r="B1577" t="s">
+        <v>2654</v>
+      </c>
+      <c r="C1577">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="1578" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1578" t="s">
+        <v>2653</v>
+      </c>
+      <c r="B1578" t="s">
+        <v>2654</v>
+      </c>
+      <c r="C1578">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="1579" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1579" t="s">
+        <v>2653</v>
+      </c>
+      <c r="B1579" t="s">
+        <v>2654</v>
+      </c>
+      <c r="C1579">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="1580" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1580" t="s">
+        <v>2655</v>
+      </c>
+      <c r="B1580" t="s">
+        <v>2656</v>
+      </c>
+      <c r="C1580">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="1581" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1581" t="s">
+        <v>2655</v>
+      </c>
+      <c r="B1581" t="s">
+        <v>2656</v>
+      </c>
+      <c r="C1581">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="1582" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1582" t="s">
+        <v>2655</v>
+      </c>
+      <c r="B1582" t="s">
+        <v>2656</v>
+      </c>
+      <c r="C1582">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="1583" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1583" t="s">
+        <v>2657</v>
+      </c>
+      <c r="B1583" t="s">
+        <v>2658</v>
+      </c>
+      <c r="C1583">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="1584" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1584" t="s">
+        <v>2657</v>
+      </c>
+      <c r="B1584" t="s">
+        <v>2658</v>
+      </c>
+      <c r="C1584">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="1585" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1585" t="s">
+        <v>2657</v>
+      </c>
+      <c r="B1585" t="s">
+        <v>2658</v>
+      </c>
+      <c r="C1585">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="1586" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1586" t="s">
+        <v>2659</v>
+      </c>
+      <c r="B1586" t="s">
+        <v>2660</v>
+      </c>
+      <c r="C1586">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="1587" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1587" t="s">
+        <v>2659</v>
+      </c>
+      <c r="B1587" t="s">
+        <v>2660</v>
+      </c>
+      <c r="C1587">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="1588" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1588" t="s">
+        <v>2659</v>
+      </c>
+      <c r="B1588" t="s">
+        <v>2660</v>
+      </c>
+      <c r="C1588">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="1589" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1589" t="s">
+        <v>2661</v>
+      </c>
+      <c r="B1589" t="s">
+        <v>2662</v>
+      </c>
+      <c r="C1589">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="1590" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1590" t="s">
+        <v>2661</v>
+      </c>
+      <c r="B1590" t="s">
+        <v>2662</v>
+      </c>
+      <c r="C1590">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="1591" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1591" t="s">
+        <v>2661</v>
+      </c>
+      <c r="B1591" t="s">
+        <v>2662</v>
+      </c>
+      <c r="C1591">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="1592" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1592" t="s">
+        <v>2663</v>
+      </c>
+      <c r="B1592" t="s">
+        <v>2664</v>
+      </c>
+      <c r="C1592">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="1593" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1593" t="s">
+        <v>2663</v>
+      </c>
+      <c r="B1593" t="s">
+        <v>2664</v>
+      </c>
+      <c r="C1593">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="1594" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1594" t="s">
+        <v>2663</v>
+      </c>
+      <c r="B1594" t="s">
+        <v>2664</v>
+      </c>
+      <c r="C1594">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="1595" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1595" t="s">
+        <v>2653</v>
+      </c>
+      <c r="B1595" t="s">
+        <v>2665</v>
+      </c>
+      <c r="C1595">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1596" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1596" t="s">
+        <v>2610</v>
+      </c>
+      <c r="B1596" t="s">
+        <v>2666</v>
+      </c>
+      <c r="C1596">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1597" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1597" t="s">
+        <v>2596</v>
+      </c>
+      <c r="B1597" t="s">
+        <v>2667</v>
+      </c>
+      <c r="C1597">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1598" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1598" t="s">
+        <v>2653</v>
+      </c>
+      <c r="B1598" t="s">
+        <v>2668</v>
+      </c>
+      <c r="C1598">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1599" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1599" t="s">
+        <v>2663</v>
+      </c>
+      <c r="B1599" t="s">
+        <v>2669</v>
+      </c>
+      <c r="C1599">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1600" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1600" t="s">
+        <v>2608</v>
+      </c>
+      <c r="B1600" t="s">
+        <v>2670</v>
+      </c>
+      <c r="C1600">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1601" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1601" t="s">
+        <v>2638</v>
+      </c>
+      <c r="B1601" t="s">
+        <v>2671</v>
+      </c>
+      <c r="C1601">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1602" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1602" t="s">
+        <v>2628</v>
+      </c>
+      <c r="B1602" t="s">
+        <v>2672</v>
+      </c>
+      <c r="C1602">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1603" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1603" t="s">
+        <v>2659</v>
+      </c>
+      <c r="B1603" t="s">
+        <v>2673</v>
+      </c>
+      <c r="C1603">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1604" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1604" t="s">
+        <v>2617</v>
+      </c>
+      <c r="B1604" t="s">
+        <v>2674</v>
+      </c>
+      <c r="C1604">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1605" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1605" t="s">
+        <v>2593</v>
+      </c>
+      <c r="B1605" t="s">
+        <v>2675</v>
+      </c>
+      <c r="C1605">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1606" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1606" t="s">
+        <v>2608</v>
+      </c>
+      <c r="B1606" t="s">
+        <v>2676</v>
+      </c>
+      <c r="C1606">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1607" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1607" t="s">
+        <v>2596</v>
+      </c>
+      <c r="B1607" t="s">
+        <v>2677</v>
+      </c>
+      <c r="C1607">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1608" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1608" t="s">
+        <v>2644</v>
+      </c>
+      <c r="B1608" t="s">
+        <v>2678</v>
+      </c>
+      <c r="C1608">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1609" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1609" t="s">
+        <v>2647</v>
+      </c>
+      <c r="B1609" t="s">
+        <v>2679</v>
+      </c>
+      <c r="C1609">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1610" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1610" t="s">
+        <v>2602</v>
+      </c>
+      <c r="B1610" t="s">
+        <v>2680</v>
+      </c>
+      <c r="C1610">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1611" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1611" t="s">
+        <v>2622</v>
+      </c>
+      <c r="B1611" t="s">
+        <v>2681</v>
+      </c>
+      <c r="C1611">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1612" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1612" t="s">
+        <v>2614</v>
+      </c>
+      <c r="B1612" t="s">
+        <v>2682</v>
+      </c>
+      <c r="C1612">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1613" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1613" t="s">
+        <v>2663</v>
+      </c>
+      <c r="B1613" t="s">
+        <v>2683</v>
+      </c>
+      <c r="C1613">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1614" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1614" t="s">
+        <v>2628</v>
+      </c>
+      <c r="B1614" t="s">
+        <v>2684</v>
+      </c>
+      <c r="C1614">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1615" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1615" t="s">
+        <v>2633</v>
+      </c>
+      <c r="B1615" t="s">
+        <v>2685</v>
+      </c>
+      <c r="C1615">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1616" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1616" t="s">
+        <v>2659</v>
+      </c>
+      <c r="B1616" t="s">
+        <v>2686</v>
+      </c>
+      <c r="C1616">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1617" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1617" t="s">
+        <v>2593</v>
+      </c>
+      <c r="B1617" t="s">
+        <v>2687</v>
+      </c>
+      <c r="C1617">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1618" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1618" t="s">
+        <v>2659</v>
+      </c>
+      <c r="B1618" t="s">
+        <v>2688</v>
+      </c>
+      <c r="C1618">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1619" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1619" t="s">
+        <v>2596</v>
+      </c>
+      <c r="B1619" t="s">
+        <v>2689</v>
+      </c>
+      <c r="C1619">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1620" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1620" t="s">
+        <v>2653</v>
+      </c>
+      <c r="B1620" t="s">
+        <v>2690</v>
+      </c>
+      <c r="C1620">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1621" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1621" t="s">
+        <v>2628</v>
+      </c>
+      <c r="B1621" t="s">
+        <v>2691</v>
+      </c>
+      <c r="C1621">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1622" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1622" t="s">
+        <v>2655</v>
+      </c>
+      <c r="B1622" t="s">
+        <v>2692</v>
+      </c>
+      <c r="C1622">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1623" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1623" t="s">
+        <v>2593</v>
+      </c>
+      <c r="B1623" t="s">
+        <v>2693</v>
+      </c>
+      <c r="C1623">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1624" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1624" t="s">
+        <v>2647</v>
+      </c>
+      <c r="B1624" t="s">
+        <v>2694</v>
+      </c>
+      <c r="C1624">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1625" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1625" t="s">
+        <v>2614</v>
+      </c>
+      <c r="B1625" t="s">
+        <v>2695</v>
+      </c>
+      <c r="C1625">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1626" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1626" t="s">
+        <v>2620</v>
+      </c>
+      <c r="B1626" t="s">
+        <v>2696</v>
+      </c>
+      <c r="C1626">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1627" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1627" t="s">
+        <v>2649</v>
+      </c>
+      <c r="B1627" t="s">
+        <v>2697</v>
+      </c>
+      <c r="C1627">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1628" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1628" t="s">
+        <v>2633</v>
+      </c>
+      <c r="B1628" t="s">
+        <v>2698</v>
+      </c>
+      <c r="C1628">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1629" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1629" t="s">
+        <v>2628</v>
+      </c>
+      <c r="B1629" t="s">
+        <v>2699</v>
+      </c>
+      <c r="C1629">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1630" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1630" t="s">
+        <v>2620</v>
+      </c>
+      <c r="B1630" t="s">
+        <v>2700</v>
+      </c>
+      <c r="C1630">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1631" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1631" t="s">
+        <v>2612</v>
+      </c>
+      <c r="B1631" t="s">
+        <v>2701</v>
+      </c>
+      <c r="C1631">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1632" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1632" t="s">
+        <v>2659</v>
+      </c>
+      <c r="B1632" t="s">
+        <v>2702</v>
+      </c>
+      <c r="C1632">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1633" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1633" t="s">
+        <v>2644</v>
+      </c>
+      <c r="B1633" t="s">
+        <v>2703</v>
+      </c>
+      <c r="C1633">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1634" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1634" t="s">
+        <v>2612</v>
+      </c>
+      <c r="B1634" t="s">
+        <v>2704</v>
+      </c>
+      <c r="C1634">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1635" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1635" t="s">
+        <v>2612</v>
+      </c>
+      <c r="B1635" t="s">
+        <v>2705</v>
+      </c>
+      <c r="C1635">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1636" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1636" t="s">
+        <v>2612</v>
+      </c>
+      <c r="B1636" t="s">
+        <v>2706</v>
+      </c>
+      <c r="C1636">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1637" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1637" t="s">
+        <v>2647</v>
+      </c>
+      <c r="B1637" t="s">
+        <v>2707</v>
+      </c>
+      <c r="C1637">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1638" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1638" t="s">
+        <v>2661</v>
+      </c>
+      <c r="B1638" t="s">
+        <v>2708</v>
+      </c>
+      <c r="C1638">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1639" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1639" t="s">
+        <v>2625</v>
+      </c>
+      <c r="B1639" t="s">
+        <v>2709</v>
+      </c>
+      <c r="C1639">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1640" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1640" t="s">
+        <v>2612</v>
+      </c>
+      <c r="B1640" t="s">
+        <v>2710</v>
+      </c>
+      <c r="C1640">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1641" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1641" t="s">
+        <v>2647</v>
+      </c>
+      <c r="B1641" t="s">
+        <v>2711</v>
+      </c>
+      <c r="C1641">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1642" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1642" t="s">
+        <v>2602</v>
+      </c>
+      <c r="B1642" t="s">
+        <v>2712</v>
+      </c>
+      <c r="C1642">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1643" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1643" t="s">
+        <v>2596</v>
+      </c>
+      <c r="B1643" t="s">
+        <v>2713</v>
+      </c>
+      <c r="C1643">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1644" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1644" t="s">
+        <v>2653</v>
+      </c>
+      <c r="B1644" t="s">
+        <v>2714</v>
+      </c>
+      <c r="C1644">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1645" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1645" t="s">
+        <v>2647</v>
+      </c>
+      <c r="B1645" t="s">
+        <v>2715</v>
+      </c>
+      <c r="C1645">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1646" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1646" t="s">
+        <v>2593</v>
+      </c>
+      <c r="B1646" t="s">
+        <v>2616</v>
+      </c>
+      <c r="C1646">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1647" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1647" t="s">
+        <v>2642</v>
+      </c>
+      <c r="B1647" t="s">
+        <v>2716</v>
+      </c>
+      <c r="C1647">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1648" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1648" t="s">
+        <v>2593</v>
+      </c>
+      <c r="B1648" t="s">
+        <v>2615</v>
+      </c>
+      <c r="C1648">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1649" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1649" t="s">
+        <v>2602</v>
+      </c>
+      <c r="B1649" t="s">
+        <v>2595</v>
+      </c>
+      <c r="C1649">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1650" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1650" t="s">
+        <v>2605</v>
+      </c>
+      <c r="B1650" t="s">
+        <v>2595</v>
+      </c>
+      <c r="C1650">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1651" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1651" t="s">
+        <v>2636</v>
+      </c>
+      <c r="B1651" t="s">
+        <v>2716</v>
+      </c>
+      <c r="C1651">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1652" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1652" t="s">
+        <v>2642</v>
+      </c>
+      <c r="B1652" t="s">
+        <v>2715</v>
+      </c>
+      <c r="C1652">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1653" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1653" t="s">
+        <v>2636</v>
+      </c>
+      <c r="B1653" t="s">
+        <v>2715</v>
+      </c>
+      <c r="C1653">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1654" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1654" t="s">
+        <v>2625</v>
+      </c>
+      <c r="B1654" t="s">
+        <v>2594</v>
+      </c>
+      <c r="C1654">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1655" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1655" t="s">
+        <v>2655</v>
+      </c>
+      <c r="B1655" t="s">
+        <v>2715</v>
+      </c>
+      <c r="C1655">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1656" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1656" t="s">
+        <v>2596</v>
+      </c>
+      <c r="B1656" t="s">
+        <v>2594</v>
+      </c>
+      <c r="C1656">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1657" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1657" t="s">
+        <v>2617</v>
+      </c>
+      <c r="B1657" t="s">
+        <v>2595</v>
+      </c>
+      <c r="C1657">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1658" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1658" t="s">
+        <v>2625</v>
+      </c>
+      <c r="B1658" t="s">
+        <v>2594</v>
+      </c>
+      <c r="C1658">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1659" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1659" t="s">
+        <v>2645</v>
+      </c>
+      <c r="B1659" t="s">
+        <v>2715</v>
+      </c>
+      <c r="C1659">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1660" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1660" t="s">
+        <v>2633</v>
+      </c>
+      <c r="B1660" t="s">
+        <v>2595</v>
+      </c>
+      <c r="C1660">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1661" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1661" t="s">
+        <v>2636</v>
+      </c>
+      <c r="B1661" t="s">
+        <v>2715</v>
+      </c>
+      <c r="C1661">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1662" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1662" t="s">
+        <v>2649</v>
+      </c>
+      <c r="B1662" t="s">
+        <v>2715</v>
+      </c>
+      <c r="C1662">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1663" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1663" t="s">
+        <v>2614</v>
+      </c>
+      <c r="B1663" t="s">
+        <v>2594</v>
+      </c>
+      <c r="C1663">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1664" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1664" t="s">
+        <v>2596</v>
+      </c>
+      <c r="B1664" t="s">
+        <v>2594</v>
+      </c>
+      <c r="C1664">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1665" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1665" t="s">
+        <v>2659</v>
+      </c>
+      <c r="B1665" t="s">
+        <v>2716</v>
+      </c>
+      <c r="C1665">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1666" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1666" t="s">
+        <v>2659</v>
+      </c>
+      <c r="B1666" t="s">
+        <v>2716</v>
+      </c>
+      <c r="C1666">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1667" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1667" t="s">
+        <v>2614</v>
+      </c>
+      <c r="B1667" t="s">
+        <v>2594</v>
+      </c>
+      <c r="C1667">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1668" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1668" t="s">
+        <v>2593</v>
+      </c>
+      <c r="B1668" t="s">
+        <v>2616</v>
+      </c>
+      <c r="C1668">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1669" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1669" t="s">
+        <v>2628</v>
+      </c>
+      <c r="B1669" t="s">
+        <v>2595</v>
+      </c>
+      <c r="C1669">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1670" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1670" t="s">
+        <v>2622</v>
+      </c>
+      <c r="B1670" t="s">
+        <v>2595</v>
+      </c>
+      <c r="C1670">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1671" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1671" t="s">
+        <v>2608</v>
+      </c>
+      <c r="B1671" t="s">
+        <v>2716</v>
+      </c>
+      <c r="C1671">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1672" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1672" t="s">
+        <v>2610</v>
+      </c>
+      <c r="B1672" t="s">
+        <v>2595</v>
+      </c>
+      <c r="C1672">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1673" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1673" t="s">
+        <v>2614</v>
+      </c>
+      <c r="B1673" t="s">
+        <v>2595</v>
+      </c>
+      <c r="C1673">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1674" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1674" t="s">
+        <v>2633</v>
+      </c>
+      <c r="B1674" t="s">
+        <v>2594</v>
+      </c>
+      <c r="C1674">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1675" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1675" t="s">
+        <v>2593</v>
+      </c>
+      <c r="B1675" t="s">
+        <v>2615</v>
+      </c>
+      <c r="C1675">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1676" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1676" t="s">
+        <v>2651</v>
+      </c>
+      <c r="B1676" t="s">
+        <v>2716</v>
+      </c>
+      <c r="C1676">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1677" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1677" t="s">
+        <v>2657</v>
+      </c>
+      <c r="B1677" t="s">
+        <v>2715</v>
+      </c>
+      <c r="C1677">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1678" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1678" t="s">
+        <v>2593</v>
+      </c>
+      <c r="B1678" t="s">
+        <v>2615</v>
+      </c>
+      <c r="C1678">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1679" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1679" t="s">
+        <v>2628</v>
+      </c>
+      <c r="B1679" t="s">
+        <v>2594</v>
+      </c>
+      <c r="C1679">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1680" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1680" t="s">
+        <v>2649</v>
+      </c>
+      <c r="B1680" t="s">
+        <v>2716</v>
+      </c>
+      <c r="C1680">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1681" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1681" t="s">
+        <v>2642</v>
+      </c>
+      <c r="B1681" t="s">
+        <v>2716</v>
+      </c>
+      <c r="C1681">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1682" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1682" t="s">
+        <v>2638</v>
+      </c>
+      <c r="B1682" t="s">
+        <v>2716</v>
+      </c>
+      <c r="C1682">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1683" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1683" t="s">
+        <v>2663</v>
+      </c>
+      <c r="B1683" t="s">
+        <v>2716</v>
+      </c>
+      <c r="C1683">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1684" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1684" t="s">
+        <v>2605</v>
+      </c>
+      <c r="B1684" t="s">
+        <v>2595</v>
+      </c>
+      <c r="C1684">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1685" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1685" t="s">
+        <v>2617</v>
+      </c>
+      <c r="B1685" t="s">
+        <v>2594</v>
+      </c>
+      <c r="C1685">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1686" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1686" t="s">
+        <v>2657</v>
+      </c>
+      <c r="B1686" t="s">
+        <v>2715</v>
+      </c>
+      <c r="C1686">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1687" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1687" t="s">
+        <v>2657</v>
+      </c>
+      <c r="B1687" t="s">
+        <v>2716</v>
+      </c>
+      <c r="C1687">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1688" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1688" t="s">
+        <v>2645</v>
+      </c>
+      <c r="B1688" t="s">
+        <v>2715</v>
+      </c>
+      <c r="C1688">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1689" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1689" t="s">
+        <v>2596</v>
+      </c>
+      <c r="B1689" t="s">
+        <v>2594</v>
+      </c>
+      <c r="C1689">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1690" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1690" t="s">
+        <v>2608</v>
+      </c>
+      <c r="B1690" t="s">
+        <v>2716</v>
+      </c>
+      <c r="C1690">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1691" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1691" t="s">
+        <v>2647</v>
+      </c>
+      <c r="B1691" t="s">
+        <v>2716</v>
+      </c>
+      <c r="C1691">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1692" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1692" t="s">
+        <v>2625</v>
+      </c>
+      <c r="B1692" t="s">
+        <v>2595</v>
+      </c>
+      <c r="C1692">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1693" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1693" t="s">
+        <v>2636</v>
+      </c>
+      <c r="B1693" t="s">
+        <v>2715</v>
+      </c>
+      <c r="C1693">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1694" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1694" t="s">
+        <v>2647</v>
+      </c>
+      <c r="B1694" t="s">
+        <v>2715</v>
+      </c>
+      <c r="C1694">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
